--- a/UT.Volteer.BLL/HelperFiles/Volunteer.xlsx
+++ b/UT.Volteer.BLL/HelperFiles/Volunteer.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Source\Repos\VolTeerNET\UT.Volteer.BLL\UTTestFiles\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9735" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Volunteer" sheetId="1" r:id="rId1"/>
+    <sheet name="VolPhone" sheetId="2" r:id="rId2"/>
+    <sheet name="VolEmail" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="ListVolunteers">Volunteer!$A:$C</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>FirstName</t>
   </si>
@@ -51,6 +48,18 @@
   </si>
   <si>
     <t>Smith</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>EmailAddress</t>
+  </si>
+  <si>
+    <t>bgibbons@test.tes</t>
+  </si>
+  <si>
+    <t>jsmith@test.tes</t>
   </si>
 </sst>
 </file>
@@ -360,7 +369,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -370,8 +379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,4 +418,118 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>2345556789</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>9875556432</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>